--- a/One_Sandbar_No_Bathymetry.xlsx
+++ b/One_Sandbar_No_Bathymetry.xlsx
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Total_Eddy_Ref" sheetId="2" r:id="rId1"/>
-    <sheet name="167L" sheetId="1002" r:id="rId2"/>
-    <sheet name="084R" sheetId="1001" r:id="rId3"/>
-    <sheet name="070R" sheetId="1000" r:id="rId4"/>
-    <sheet name="056R" sheetId="999" r:id="rId5"/>
-    <sheet name="033L" sheetId="998" r:id="rId6"/>
-    <sheet name="029L" sheetId="997" r:id="rId7"/>
-    <sheet name="024L" sheetId="996" r:id="rId8"/>
-    <sheet name="009L" sheetId="995" r:id="rId9"/>
-    <sheet name="008L" sheetId="994" r:id="rId10"/>
+    <sheet name="167L" sheetId="1047" r:id="rId2"/>
+    <sheet name="084R" sheetId="1046" r:id="rId3"/>
+    <sheet name="070R" sheetId="1045" r:id="rId4"/>
+    <sheet name="056R" sheetId="1044" r:id="rId5"/>
+    <sheet name="033L" sheetId="1043" r:id="rId6"/>
+    <sheet name="029L" sheetId="1042" r:id="rId7"/>
+    <sheet name="024L" sheetId="1041" r:id="rId8"/>
+    <sheet name="009L" sheetId="1040" r:id="rId9"/>
+    <sheet name="008L" sheetId="1039" r:id="rId10"/>
     <sheet name="Uncertainty_LU" sheetId="300" r:id="rId11"/>
     <sheet name="old_LU" sheetId="888" r:id="rId12"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12030" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12066" uniqueCount="80">
   <si>
     <t>t</t>
   </si>
@@ -6955,7 +6955,8 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:O1048576"/>
@@ -8731,6 +8732,50 @@
       </c>
       <c r="O40">
         <v>40.064534156800001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="3">
+        <v>42644</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>1314.6323790700001</v>
+      </c>
+      <c r="E41">
+        <v>1327.898074</v>
+      </c>
+      <c r="F41">
+        <v>315.39974457099999</v>
+      </c>
+      <c r="G41">
+        <v>52.585295162800001</v>
+      </c>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="3">
+        <v>42644</v>
+      </c>
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41">
+        <v>943.99346817200001</v>
+      </c>
+      <c r="M41">
+        <v>949.83133764499996</v>
+      </c>
+      <c r="N41">
+        <v>65.868565869199998</v>
+      </c>
+      <c r="O41">
+        <v>37.759738726880002</v>
       </c>
     </row>
   </sheetData>
@@ -87730,7 +87775,8 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:O1048576"/>
@@ -88496,6 +88542,50 @@
         <v>56.262115960000003</v>
       </c>
     </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42657</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>3530.71819443</v>
+      </c>
+      <c r="E18">
+        <v>3543.0975115000001</v>
+      </c>
+      <c r="F18">
+        <v>2105.1635111700002</v>
+      </c>
+      <c r="G18">
+        <v>141.22872777719999</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="3">
+        <v>42657</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18">
+        <v>1465.96887932</v>
+      </c>
+      <c r="M18">
+        <v>1489.5189312800001</v>
+      </c>
+      <c r="N18">
+        <v>139.40110969899999</v>
+      </c>
+      <c r="O18">
+        <v>58.638755172800003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -88503,1200 +88593,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3">
-        <v>37527</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>824.20803961399997</v>
-      </c>
-      <c r="E2">
-        <v>841.13919482200004</v>
-      </c>
-      <c r="F2">
-        <v>123.222276752</v>
-      </c>
-      <c r="G2">
-        <v>32.968321584560002</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="3">
-        <v>37527</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2">
-        <v>158.92927165399999</v>
-      </c>
-      <c r="M2">
-        <v>164.744283905</v>
-      </c>
-      <c r="N2">
-        <v>20.649741250000002</v>
-      </c>
-      <c r="O2">
-        <v>6.3571708661599997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="3">
-        <v>37744</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3">
-        <v>814.43534835699995</v>
-      </c>
-      <c r="E3">
-        <v>832.80028364299994</v>
-      </c>
-      <c r="F3">
-        <v>118.699102055</v>
-      </c>
-      <c r="G3">
-        <v>32.577413934279996</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="3">
-        <v>37744</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3">
-        <v>169.09823842500001</v>
-      </c>
-      <c r="M3">
-        <v>175.04109742399999</v>
-      </c>
-      <c r="N3">
-        <v>16.7472028</v>
-      </c>
-      <c r="O3">
-        <v>6.7639295370000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3">
-        <v>37892</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4">
-        <v>804.19898765400001</v>
-      </c>
-      <c r="E4">
-        <v>827.75432665100004</v>
-      </c>
-      <c r="F4">
-        <v>156.189170558</v>
-      </c>
-      <c r="G4">
-        <v>32.167959506160003</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="3">
-        <v>37892</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4">
-        <v>162.64278499</v>
-      </c>
-      <c r="M4">
-        <v>168.32559009100001</v>
-      </c>
-      <c r="N4">
-        <v>10.932209609999999</v>
-      </c>
-      <c r="O4">
-        <v>6.5057113996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3">
-        <v>38356</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
-        <v>644.95979822799995</v>
-      </c>
-      <c r="E5">
-        <v>669.98693852400004</v>
-      </c>
-      <c r="F5">
-        <v>401.59821447899998</v>
-      </c>
-      <c r="G5">
-        <v>25.798391929119997</v>
-      </c>
-      <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="3">
-        <v>38356</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5">
-        <v>281.54767400200001</v>
-      </c>
-      <c r="M5">
-        <v>290.95145818399999</v>
-      </c>
-      <c r="N5">
-        <v>76.437808139099999</v>
-      </c>
-      <c r="O5">
-        <v>11.261906960080001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="3">
-        <v>38486</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>737.68638983599999</v>
-      </c>
-      <c r="E6">
-        <v>764.71974498999998</v>
-      </c>
-      <c r="F6">
-        <v>250.928128918</v>
-      </c>
-      <c r="G6">
-        <v>29.50745559344</v>
-      </c>
-      <c r="I6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="3">
-        <v>38486</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6">
-        <v>214.89166830299999</v>
-      </c>
-      <c r="M6">
-        <v>224.00030027899999</v>
-      </c>
-      <c r="N6">
-        <v>21.227447356199999</v>
-      </c>
-      <c r="O6">
-        <v>8.5956667321199998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="3">
-        <v>39004</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>607.859732721</v>
-      </c>
-      <c r="E7">
-        <v>626.05151318900005</v>
-      </c>
-      <c r="F7">
-        <v>240.07945848400001</v>
-      </c>
-      <c r="G7">
-        <v>24.314389308839999</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="3">
-        <v>39004</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7">
-        <v>238.67500678900001</v>
-      </c>
-      <c r="M7">
-        <v>249.19203995000001</v>
-      </c>
-      <c r="N7">
-        <v>49.370890145399997</v>
-      </c>
-      <c r="O7">
-        <v>9.54700027156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="3">
-        <v>39376</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>810.11885833500003</v>
-      </c>
-      <c r="E8">
-        <v>831.34848750000003</v>
-      </c>
-      <c r="F8">
-        <v>301.56792507799997</v>
-      </c>
-      <c r="G8">
-        <v>32.4047543334</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="3">
-        <v>39376</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8">
-        <v>190.42900438800001</v>
-      </c>
-      <c r="M8">
-        <v>197.234215487</v>
-      </c>
-      <c r="N8">
-        <v>27.100109414599999</v>
-      </c>
-      <c r="O8">
-        <v>7.6171601755200005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="3">
-        <v>39489</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>809.67573501100003</v>
-      </c>
-      <c r="E9">
-        <v>831.39270527500003</v>
-      </c>
-      <c r="F9">
-        <v>394.49519852899999</v>
-      </c>
-      <c r="G9">
-        <v>32.387029400439999</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="3">
-        <v>39489</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9">
-        <v>225.77077759100001</v>
-      </c>
-      <c r="M9">
-        <v>233.690287184</v>
-      </c>
-      <c r="N9">
-        <v>35.003041765500001</v>
-      </c>
-      <c r="O9">
-        <v>9.0308311036400006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="3">
-        <v>39544</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>647.77220423200004</v>
-      </c>
-      <c r="E10">
-        <v>674.48262482500002</v>
-      </c>
-      <c r="F10">
-        <v>326.16768128899997</v>
-      </c>
-      <c r="G10">
-        <v>25.910888169280003</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="3">
-        <v>39544</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10">
-        <v>284.75233177000001</v>
-      </c>
-      <c r="M10">
-        <v>297.19375067499999</v>
-      </c>
-      <c r="N10">
-        <v>105.813041149</v>
-      </c>
-      <c r="O10">
-        <v>11.390093270800001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3">
-        <v>39718</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>752.11992415099996</v>
-      </c>
-      <c r="E11">
-        <v>779.03635390500006</v>
-      </c>
-      <c r="F11">
-        <v>271.635262947</v>
-      </c>
-      <c r="G11">
-        <v>30.084796966039999</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="3">
-        <v>39718</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11">
-        <v>271.95762638000002</v>
-      </c>
-      <c r="M11">
-        <v>285.46407884299998</v>
-      </c>
-      <c r="N11">
-        <v>91.968623947799998</v>
-      </c>
-      <c r="O11">
-        <v>10.8783050552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="3">
-        <v>40103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>727.26986047599996</v>
-      </c>
-      <c r="E12">
-        <v>756.82199535999996</v>
-      </c>
-      <c r="F12">
-        <v>199.68259963700001</v>
-      </c>
-      <c r="G12">
-        <v>29.090794419039998</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="3">
-        <v>40103</v>
-      </c>
-      <c r="K12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12">
-        <v>261.42823635000002</v>
-      </c>
-      <c r="M12">
-        <v>275.48851765900002</v>
-      </c>
-      <c r="N12">
-        <v>81.421353487399998</v>
-      </c>
-      <c r="O12">
-        <v>10.457129454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="3">
-        <v>40828</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>735.74029142200004</v>
-      </c>
-      <c r="E13">
-        <v>766.47128736900004</v>
-      </c>
-      <c r="F13">
-        <v>253.263979105</v>
-      </c>
-      <c r="G13">
-        <v>29.429611656880002</v>
-      </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="3">
-        <v>40828</v>
-      </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13">
-        <v>248.008979154</v>
-      </c>
-      <c r="M13">
-        <v>265.09458514400001</v>
-      </c>
-      <c r="N13">
-        <v>70.080910075399999</v>
-      </c>
-      <c r="O13">
-        <v>9.9203591661600008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3">
-        <v>41192</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14">
-        <v>737.99714593099998</v>
-      </c>
-      <c r="E14">
-        <v>765.34923093600003</v>
-      </c>
-      <c r="F14">
-        <v>161.78477080100001</v>
-      </c>
-      <c r="G14">
-        <v>29.51988583724</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="3">
-        <v>41192</v>
-      </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14">
-        <v>241.70220569099999</v>
-      </c>
-      <c r="M14">
-        <v>257.14282881299999</v>
-      </c>
-      <c r="N14">
-        <v>65.619692710400003</v>
-      </c>
-      <c r="O14">
-        <v>9.6680882276400002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="3">
-        <v>41546</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <v>758.26647266700002</v>
-      </c>
-      <c r="E15">
-        <v>781.023166812</v>
-      </c>
-      <c r="F15">
-        <v>298.11712539299998</v>
-      </c>
-      <c r="G15">
-        <v>30.33065890668</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="3">
-        <v>41546</v>
-      </c>
-      <c r="K15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15">
-        <v>274.93967018900003</v>
-      </c>
-      <c r="M15">
-        <v>290.39306998900003</v>
-      </c>
-      <c r="N15">
-        <v>108.91810238799999</v>
-      </c>
-      <c r="O15">
-        <v>10.997586807560001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3">
-        <v>41914</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16">
-        <v>674.88222869699996</v>
-      </c>
-      <c r="E16">
-        <v>698.27055161600003</v>
-      </c>
-      <c r="F16">
-        <v>283.81593425800003</v>
-      </c>
-      <c r="G16">
-        <v>26.995289147879998</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="3">
-        <v>41914</v>
-      </c>
-      <c r="K16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16">
-        <v>309.983654667</v>
-      </c>
-      <c r="M16">
-        <v>324.97991495999997</v>
-      </c>
-      <c r="N16">
-        <v>143.78569895699999</v>
-      </c>
-      <c r="O16">
-        <v>12.399346186680001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="3">
-        <v>42278</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>552.81878257300002</v>
-      </c>
-      <c r="E17">
-        <v>587.20019071000002</v>
-      </c>
-      <c r="F17">
-        <v>70.683856546900003</v>
-      </c>
-      <c r="G17">
-        <v>22.11275130292</v>
-      </c>
-      <c r="I17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="3">
-        <v>42278</v>
-      </c>
-      <c r="K17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17">
-        <v>288.88975462399998</v>
-      </c>
-      <c r="M17">
-        <v>309.319601702</v>
-      </c>
-      <c r="N17">
-        <v>105.960865145</v>
-      </c>
-      <c r="O17">
-        <v>11.55559018496</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="3">
-        <v>39488</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>513.07412264300001</v>
-      </c>
-      <c r="E2">
-        <v>521.91162023499999</v>
-      </c>
-      <c r="F2">
-        <v>73.432287508399995</v>
-      </c>
-      <c r="G2">
-        <v>20.522964905720002</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="3">
-        <v>39488</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2">
-        <v>779.01450344399996</v>
-      </c>
-      <c r="M2">
-        <v>790.91266679199998</v>
-      </c>
-      <c r="N2">
-        <v>99.153531261699996</v>
-      </c>
-      <c r="O2">
-        <v>31.16058013776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="3">
-        <v>39543</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3">
-        <v>1314.2904259100001</v>
-      </c>
-      <c r="E3">
-        <v>1338.72536526</v>
-      </c>
-      <c r="F3">
-        <v>1750.57559429</v>
-      </c>
-      <c r="G3">
-        <v>52.571617036400006</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="3">
-        <v>39543</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3">
-        <v>1587.4936581699999</v>
-      </c>
-      <c r="M3">
-        <v>1600.0681427899999</v>
-      </c>
-      <c r="N3">
-        <v>393.90435591699998</v>
-      </c>
-      <c r="O3">
-        <v>63.4997463268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3">
-        <v>39739</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4">
-        <v>1440.58848259</v>
-      </c>
-      <c r="E4">
-        <v>1458.9594149300001</v>
-      </c>
-      <c r="F4">
-        <v>822.79003035899996</v>
-      </c>
-      <c r="G4">
-        <v>57.623539303600005</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="3">
-        <v>39739</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4">
-        <v>1166.8508912499999</v>
-      </c>
-      <c r="M4">
-        <v>1200.4114282999999</v>
-      </c>
-      <c r="N4">
-        <v>566.02816644200004</v>
-      </c>
-      <c r="O4">
-        <v>46.67403565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3">
-        <v>40102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
-        <v>1096.7497694199999</v>
-      </c>
-      <c r="E5">
-        <v>1111.7599946800001</v>
-      </c>
-      <c r="F5">
-        <v>206.467414021</v>
-      </c>
-      <c r="G5">
-        <v>43.869990776799995</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="3">
-        <v>40102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5">
-        <v>890.04392013100005</v>
-      </c>
-      <c r="M5">
-        <v>918.97105152200004</v>
-      </c>
-      <c r="N5">
-        <v>574.840573242</v>
-      </c>
-      <c r="O5">
-        <v>35.601756805240001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="3">
-        <v>41191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>2488.6651365900002</v>
-      </c>
-      <c r="E6">
-        <v>2498.1382634199999</v>
-      </c>
-      <c r="F6">
-        <v>843.39967785600004</v>
-      </c>
-      <c r="G6">
-        <v>99.546605463600017</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="3">
-        <v>41191</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6">
-        <v>776.58944900899996</v>
-      </c>
-      <c r="M6">
-        <v>797.48180312199997</v>
-      </c>
-      <c r="N6">
-        <v>473.30406073500001</v>
-      </c>
-      <c r="O6">
-        <v>31.06357796036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="3">
-        <v>41545</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>1234.48460454</v>
-      </c>
-      <c r="E7">
-        <v>1244.30917705</v>
-      </c>
-      <c r="F7">
-        <v>667.54103410000005</v>
-      </c>
-      <c r="G7">
-        <v>49.379384181600003</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="3">
-        <v>41545</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7">
-        <v>991.66211730800001</v>
-      </c>
-      <c r="M7">
-        <v>1012.8465678699999</v>
-      </c>
-      <c r="N7">
-        <v>548.105551924</v>
-      </c>
-      <c r="O7">
-        <v>39.666484692320005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="3">
-        <v>41913</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>939.59843477300001</v>
-      </c>
-      <c r="E8">
-        <v>950.22511189900001</v>
-      </c>
-      <c r="F8">
-        <v>281.76874768200003</v>
-      </c>
-      <c r="G8">
-        <v>37.583937390919999</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="3">
-        <v>41913</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8">
-        <v>895.65421927700004</v>
-      </c>
-      <c r="M8">
-        <v>913.121977249</v>
-      </c>
-      <c r="N8">
-        <v>586.63782595700002</v>
-      </c>
-      <c r="O8">
-        <v>35.826168771079999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="3">
-        <v>42277</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>1379.37171476</v>
-      </c>
-      <c r="E9">
-        <v>1392.2363742299999</v>
-      </c>
-      <c r="F9">
-        <v>120.066719768</v>
-      </c>
-      <c r="G9">
-        <v>55.174868590400003</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="3">
-        <v>42277</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9">
-        <v>815.99905287700005</v>
-      </c>
-      <c r="M9">
-        <v>836.67898601000002</v>
-      </c>
-      <c r="N9">
-        <v>563.63348003299996</v>
-      </c>
-      <c r="O9">
-        <v>32.639962115080003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -89761,6 +88658,1290 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3">
+        <v>37527</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>824.20803961399997</v>
+      </c>
+      <c r="E2">
+        <v>841.13919482200004</v>
+      </c>
+      <c r="F2">
+        <v>123.222276752</v>
+      </c>
+      <c r="G2">
+        <v>32.968321584560002</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="3">
+        <v>37527</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2">
+        <v>158.92927165399999</v>
+      </c>
+      <c r="M2">
+        <v>164.744283905</v>
+      </c>
+      <c r="N2">
+        <v>20.649741250000002</v>
+      </c>
+      <c r="O2">
+        <v>6.3571708661599997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3">
+        <v>37744</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>814.43534835699995</v>
+      </c>
+      <c r="E3">
+        <v>832.80028364299994</v>
+      </c>
+      <c r="F3">
+        <v>118.699102055</v>
+      </c>
+      <c r="G3">
+        <v>32.577413934279996</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="3">
+        <v>37744</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3">
+        <v>169.09823842500001</v>
+      </c>
+      <c r="M3">
+        <v>175.04109742399999</v>
+      </c>
+      <c r="N3">
+        <v>16.7472028</v>
+      </c>
+      <c r="O3">
+        <v>6.7639295370000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3">
+        <v>37892</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>804.19898765400001</v>
+      </c>
+      <c r="E4">
+        <v>827.75432665100004</v>
+      </c>
+      <c r="F4">
+        <v>156.189170558</v>
+      </c>
+      <c r="G4">
+        <v>32.167959506160003</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="3">
+        <v>37892</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <v>162.64278499</v>
+      </c>
+      <c r="M4">
+        <v>168.32559009100001</v>
+      </c>
+      <c r="N4">
+        <v>10.932209609999999</v>
+      </c>
+      <c r="O4">
+        <v>6.5057113996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3">
+        <v>38356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>644.95979822799995</v>
+      </c>
+      <c r="E5">
+        <v>669.98693852400004</v>
+      </c>
+      <c r="F5">
+        <v>401.59821447899998</v>
+      </c>
+      <c r="G5">
+        <v>25.798391929119997</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="3">
+        <v>38356</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>281.54767400200001</v>
+      </c>
+      <c r="M5">
+        <v>290.95145818399999</v>
+      </c>
+      <c r="N5">
+        <v>76.437808139099999</v>
+      </c>
+      <c r="O5">
+        <v>11.261906960080001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38486</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>737.68638983599999</v>
+      </c>
+      <c r="E6">
+        <v>764.71974498999998</v>
+      </c>
+      <c r="F6">
+        <v>250.928128918</v>
+      </c>
+      <c r="G6">
+        <v>29.50745559344</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="3">
+        <v>38486</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>214.89166830299999</v>
+      </c>
+      <c r="M6">
+        <v>224.00030027899999</v>
+      </c>
+      <c r="N6">
+        <v>21.227447356199999</v>
+      </c>
+      <c r="O6">
+        <v>8.5956667321199998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3">
+        <v>39004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>607.859732721</v>
+      </c>
+      <c r="E7">
+        <v>626.05151318900005</v>
+      </c>
+      <c r="F7">
+        <v>240.07945848400001</v>
+      </c>
+      <c r="G7">
+        <v>24.314389308839999</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3">
+        <v>39004</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7">
+        <v>238.67500678900001</v>
+      </c>
+      <c r="M7">
+        <v>249.19203995000001</v>
+      </c>
+      <c r="N7">
+        <v>49.370890145399997</v>
+      </c>
+      <c r="O7">
+        <v>9.54700027156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
+        <v>39376</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>810.11885833500003</v>
+      </c>
+      <c r="E8">
+        <v>831.34848750000003</v>
+      </c>
+      <c r="F8">
+        <v>301.56792507799997</v>
+      </c>
+      <c r="G8">
+        <v>32.4047543334</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="3">
+        <v>39376</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <v>190.42900438800001</v>
+      </c>
+      <c r="M8">
+        <v>197.234215487</v>
+      </c>
+      <c r="N8">
+        <v>27.100109414599999</v>
+      </c>
+      <c r="O8">
+        <v>7.6171601755200005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3">
+        <v>39489</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>809.67573501100003</v>
+      </c>
+      <c r="E9">
+        <v>831.39270527500003</v>
+      </c>
+      <c r="F9">
+        <v>394.49519852899999</v>
+      </c>
+      <c r="G9">
+        <v>32.387029400439999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="3">
+        <v>39489</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9">
+        <v>225.77077759100001</v>
+      </c>
+      <c r="M9">
+        <v>233.690287184</v>
+      </c>
+      <c r="N9">
+        <v>35.003041765500001</v>
+      </c>
+      <c r="O9">
+        <v>9.0308311036400006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39544</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>647.77220423200004</v>
+      </c>
+      <c r="E10">
+        <v>674.48262482500002</v>
+      </c>
+      <c r="F10">
+        <v>326.16768128899997</v>
+      </c>
+      <c r="G10">
+        <v>25.910888169280003</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="3">
+        <v>39544</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10">
+        <v>284.75233177000001</v>
+      </c>
+      <c r="M10">
+        <v>297.19375067499999</v>
+      </c>
+      <c r="N10">
+        <v>105.813041149</v>
+      </c>
+      <c r="O10">
+        <v>11.390093270800001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39718</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>752.11992415099996</v>
+      </c>
+      <c r="E11">
+        <v>779.03635390500006</v>
+      </c>
+      <c r="F11">
+        <v>271.635262947</v>
+      </c>
+      <c r="G11">
+        <v>30.084796966039999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3">
+        <v>39718</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11">
+        <v>271.95762638000002</v>
+      </c>
+      <c r="M11">
+        <v>285.46407884299998</v>
+      </c>
+      <c r="N11">
+        <v>91.968623947799998</v>
+      </c>
+      <c r="O11">
+        <v>10.8783050552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3">
+        <v>40103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>727.26986047599996</v>
+      </c>
+      <c r="E12">
+        <v>756.82199535999996</v>
+      </c>
+      <c r="F12">
+        <v>199.68259963700001</v>
+      </c>
+      <c r="G12">
+        <v>29.090794419039998</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="3">
+        <v>40103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12">
+        <v>261.42823635000002</v>
+      </c>
+      <c r="M12">
+        <v>275.48851765900002</v>
+      </c>
+      <c r="N12">
+        <v>81.421353487399998</v>
+      </c>
+      <c r="O12">
+        <v>10.457129454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3">
+        <v>40828</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>735.74029142200004</v>
+      </c>
+      <c r="E13">
+        <v>766.47128736900004</v>
+      </c>
+      <c r="F13">
+        <v>253.263979105</v>
+      </c>
+      <c r="G13">
+        <v>29.429611656880002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3">
+        <v>40828</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13">
+        <v>248.008979154</v>
+      </c>
+      <c r="M13">
+        <v>265.09458514400001</v>
+      </c>
+      <c r="N13">
+        <v>70.080910075399999</v>
+      </c>
+      <c r="O13">
+        <v>9.9203591661600008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3">
+        <v>41192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>737.99714593099998</v>
+      </c>
+      <c r="E14">
+        <v>765.34923093600003</v>
+      </c>
+      <c r="F14">
+        <v>161.78477080100001</v>
+      </c>
+      <c r="G14">
+        <v>29.51988583724</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3">
+        <v>41192</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <v>241.70220569099999</v>
+      </c>
+      <c r="M14">
+        <v>257.14282881299999</v>
+      </c>
+      <c r="N14">
+        <v>65.619692710400003</v>
+      </c>
+      <c r="O14">
+        <v>9.6680882276400002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3">
+        <v>41546</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>758.26647266700002</v>
+      </c>
+      <c r="E15">
+        <v>781.023166812</v>
+      </c>
+      <c r="F15">
+        <v>298.11712539299998</v>
+      </c>
+      <c r="G15">
+        <v>30.33065890668</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="3">
+        <v>41546</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15">
+        <v>274.93967018900003</v>
+      </c>
+      <c r="M15">
+        <v>290.39306998900003</v>
+      </c>
+      <c r="N15">
+        <v>108.91810238799999</v>
+      </c>
+      <c r="O15">
+        <v>10.997586807560001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3">
+        <v>41914</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>674.88222869699996</v>
+      </c>
+      <c r="E16">
+        <v>698.27055161600003</v>
+      </c>
+      <c r="F16">
+        <v>283.81593425800003</v>
+      </c>
+      <c r="G16">
+        <v>26.995289147879998</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3">
+        <v>41914</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16">
+        <v>309.983654667</v>
+      </c>
+      <c r="M16">
+        <v>324.97991495999997</v>
+      </c>
+      <c r="N16">
+        <v>143.78569895699999</v>
+      </c>
+      <c r="O16">
+        <v>12.399346186680001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42278</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>552.81878257300002</v>
+      </c>
+      <c r="E17">
+        <v>587.20019071000002</v>
+      </c>
+      <c r="F17">
+        <v>70.683856546900003</v>
+      </c>
+      <c r="G17">
+        <v>22.11275130292</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17">
+        <v>288.88975462399998</v>
+      </c>
+      <c r="M17">
+        <v>309.319601702</v>
+      </c>
+      <c r="N17">
+        <v>105.960865145</v>
+      </c>
+      <c r="O17">
+        <v>11.55559018496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42652</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>679.033960729</v>
+      </c>
+      <c r="E18">
+        <v>713.01697857399995</v>
+      </c>
+      <c r="F18">
+        <v>150.99630425800001</v>
+      </c>
+      <c r="G18">
+        <v>27.16135842916</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3">
+        <v>42652</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18">
+        <v>280.74174589299997</v>
+      </c>
+      <c r="M18">
+        <v>298.58827769300001</v>
+      </c>
+      <c r="N18">
+        <v>112.54744531999999</v>
+      </c>
+      <c r="O18">
+        <v>11.229669835719999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3">
+        <v>39488</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>513.07412264300001</v>
+      </c>
+      <c r="E2">
+        <v>521.91162023499999</v>
+      </c>
+      <c r="F2">
+        <v>73.432287508399995</v>
+      </c>
+      <c r="G2">
+        <v>20.522964905720002</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="3">
+        <v>39488</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2">
+        <v>779.01450344399996</v>
+      </c>
+      <c r="M2">
+        <v>790.91266679199998</v>
+      </c>
+      <c r="N2">
+        <v>99.153531261699996</v>
+      </c>
+      <c r="O2">
+        <v>31.16058013776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3">
+        <v>39543</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>1314.2904259100001</v>
+      </c>
+      <c r="E3">
+        <v>1338.72536526</v>
+      </c>
+      <c r="F3">
+        <v>1750.57559429</v>
+      </c>
+      <c r="G3">
+        <v>52.571617036400006</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3">
+        <v>39543</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3">
+        <v>1587.4936581699999</v>
+      </c>
+      <c r="M3">
+        <v>1600.0681427899999</v>
+      </c>
+      <c r="N3">
+        <v>393.90435591699998</v>
+      </c>
+      <c r="O3">
+        <v>63.4997463268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3">
+        <v>39739</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>1440.58848259</v>
+      </c>
+      <c r="E4">
+        <v>1458.9594149300001</v>
+      </c>
+      <c r="F4">
+        <v>822.79003035899996</v>
+      </c>
+      <c r="G4">
+        <v>57.623539303600005</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3">
+        <v>39739</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <v>1166.8508912499999</v>
+      </c>
+      <c r="M4">
+        <v>1200.4114282999999</v>
+      </c>
+      <c r="N4">
+        <v>566.02816644200004</v>
+      </c>
+      <c r="O4">
+        <v>46.67403565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>1096.7497694199999</v>
+      </c>
+      <c r="E5">
+        <v>1111.7599946800001</v>
+      </c>
+      <c r="F5">
+        <v>206.467414021</v>
+      </c>
+      <c r="G5">
+        <v>43.869990776799995</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="3">
+        <v>40102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>890.04392013100005</v>
+      </c>
+      <c r="M5">
+        <v>918.97105152200004</v>
+      </c>
+      <c r="N5">
+        <v>574.840573242</v>
+      </c>
+      <c r="O5">
+        <v>35.601756805240001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3">
+        <v>41191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>2488.6651365900002</v>
+      </c>
+      <c r="E6">
+        <v>2498.1382634199999</v>
+      </c>
+      <c r="F6">
+        <v>843.39967785600004</v>
+      </c>
+      <c r="G6">
+        <v>99.546605463600017</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3">
+        <v>41191</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>776.58944900899996</v>
+      </c>
+      <c r="M6">
+        <v>797.48180312199997</v>
+      </c>
+      <c r="N6">
+        <v>473.30406073500001</v>
+      </c>
+      <c r="O6">
+        <v>31.06357796036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3">
+        <v>41545</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>1234.48460454</v>
+      </c>
+      <c r="E7">
+        <v>1244.30917705</v>
+      </c>
+      <c r="F7">
+        <v>667.54103410000005</v>
+      </c>
+      <c r="G7">
+        <v>49.379384181600003</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="3">
+        <v>41545</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7">
+        <v>991.66211730800001</v>
+      </c>
+      <c r="M7">
+        <v>1012.8465678699999</v>
+      </c>
+      <c r="N7">
+        <v>548.105551924</v>
+      </c>
+      <c r="O7">
+        <v>39.666484692320005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3">
+        <v>41913</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>939.59843477300001</v>
+      </c>
+      <c r="E8">
+        <v>950.22511189900001</v>
+      </c>
+      <c r="F8">
+        <v>281.76874768200003</v>
+      </c>
+      <c r="G8">
+        <v>37.583937390919999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="3">
+        <v>41913</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <v>895.65421927700004</v>
+      </c>
+      <c r="M8">
+        <v>913.121977249</v>
+      </c>
+      <c r="N8">
+        <v>586.63782595700002</v>
+      </c>
+      <c r="O8">
+        <v>35.826168771079999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>1379.37171476</v>
+      </c>
+      <c r="E9">
+        <v>1392.2363742299999</v>
+      </c>
+      <c r="F9">
+        <v>120.066719768</v>
+      </c>
+      <c r="G9">
+        <v>55.174868590400003</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9">
+        <v>815.99905287700005</v>
+      </c>
+      <c r="M9">
+        <v>836.67898601000002</v>
+      </c>
+      <c r="N9">
+        <v>563.63348003299996</v>
+      </c>
+      <c r="O9">
+        <v>32.639962115080003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42651</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>1301.6168826099999</v>
+      </c>
+      <c r="E10">
+        <v>1313.67241745</v>
+      </c>
+      <c r="F10">
+        <v>119.326015035</v>
+      </c>
+      <c r="G10">
+        <v>52.064675304399998</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="3">
+        <v>42651</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10">
+        <v>748.35044727499996</v>
+      </c>
+      <c r="M10">
+        <v>770.46392201499998</v>
+      </c>
+      <c r="N10">
+        <v>512.26709540100001</v>
+      </c>
+      <c r="O10">
+        <v>29.934017891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="3">
@@ -90505,6 +90686,50 @@
       </c>
       <c r="O18">
         <v>102.91173915760001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42649</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>1088.5725742100001</v>
+      </c>
+      <c r="E19">
+        <v>1126.3782965</v>
+      </c>
+      <c r="F19">
+        <v>1462.9457082399999</v>
+      </c>
+      <c r="G19">
+        <v>43.542902968400007</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="3">
+        <v>42649</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>2418.1849115599998</v>
+      </c>
+      <c r="M19">
+        <v>2432.1584365499998</v>
+      </c>
+      <c r="N19">
+        <v>842.75765255800002</v>
+      </c>
+      <c r="O19">
+        <v>96.727396462399994</v>
       </c>
     </row>
   </sheetData>
@@ -90514,6 +90739,913 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3">
+        <v>33034</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>776.18667648300004</v>
+      </c>
+      <c r="E2">
+        <v>795.23962349600004</v>
+      </c>
+      <c r="F2">
+        <v>595.02510340100002</v>
+      </c>
+      <c r="G2">
+        <v>31.047467059320002</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3">
+        <v>33034</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2">
+        <v>3385.2608656299999</v>
+      </c>
+      <c r="M2">
+        <v>3402.5280067799999</v>
+      </c>
+      <c r="N2">
+        <v>773.03306447099999</v>
+      </c>
+      <c r="O2">
+        <v>135.4104346252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3">
+        <v>33447</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>1156.0264889600001</v>
+      </c>
+      <c r="E3">
+        <v>1171.79326814</v>
+      </c>
+      <c r="F3">
+        <v>964.74062965500002</v>
+      </c>
+      <c r="G3">
+        <v>46.241059558400003</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="3">
+        <v>33447</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3">
+        <v>3335.25866688</v>
+      </c>
+      <c r="M3">
+        <v>3351.14931957</v>
+      </c>
+      <c r="N3">
+        <v>733.79994757300005</v>
+      </c>
+      <c r="O3">
+        <v>133.4103466752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3">
+        <v>37519</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>976.94910589400001</v>
+      </c>
+      <c r="E4">
+        <v>992.69424866099996</v>
+      </c>
+      <c r="F4">
+        <v>629.55173113800004</v>
+      </c>
+      <c r="G4">
+        <v>39.07796423576</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="3">
+        <v>37519</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <v>3272.9568109699999</v>
+      </c>
+      <c r="M4">
+        <v>3286.3819438099999</v>
+      </c>
+      <c r="N4">
+        <v>454.231445409</v>
+      </c>
+      <c r="O4">
+        <v>130.91827243879999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3">
+        <v>37738</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>962.45990499499999</v>
+      </c>
+      <c r="E5">
+        <v>978.465541196</v>
+      </c>
+      <c r="F5">
+        <v>594.20041659599997</v>
+      </c>
+      <c r="G5">
+        <v>38.498396199799998</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="3">
+        <v>37738</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>3225.9618459200001</v>
+      </c>
+      <c r="M5">
+        <v>3239.5672807400001</v>
+      </c>
+      <c r="N5">
+        <v>373.490699963</v>
+      </c>
+      <c r="O5">
+        <v>129.03847383679999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3">
+        <v>37886</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>637.74497711200002</v>
+      </c>
+      <c r="E6">
+        <v>656.90458891399999</v>
+      </c>
+      <c r="F6">
+        <v>367.26695126300001</v>
+      </c>
+      <c r="G6">
+        <v>25.509799084480001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="3">
+        <v>37886</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>3222.1034728</v>
+      </c>
+      <c r="M6">
+        <v>3235.2915107899998</v>
+      </c>
+      <c r="N6">
+        <v>368.60697719500001</v>
+      </c>
+      <c r="O6">
+        <v>128.884138912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3">
+        <v>38352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>972.10276599600002</v>
+      </c>
+      <c r="E7">
+        <v>990.95481164700004</v>
+      </c>
+      <c r="F7">
+        <v>913.03722972000003</v>
+      </c>
+      <c r="G7">
+        <v>38.884110639840003</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="3">
+        <v>38352</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7">
+        <v>3250.07443203</v>
+      </c>
+      <c r="M7">
+        <v>3262.4325926699998</v>
+      </c>
+      <c r="N7">
+        <v>475.111745235</v>
+      </c>
+      <c r="O7">
+        <v>130.0029772812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3">
+        <v>38481</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>758.65250104300003</v>
+      </c>
+      <c r="E8">
+        <v>784.77748334199998</v>
+      </c>
+      <c r="F8">
+        <v>522.31086014499999</v>
+      </c>
+      <c r="G8">
+        <v>30.346100041720003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="3">
+        <v>38481</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <v>3291.1272556600002</v>
+      </c>
+      <c r="M8">
+        <v>3303.7399409499999</v>
+      </c>
+      <c r="N8">
+        <v>449.01045017199999</v>
+      </c>
+      <c r="O8">
+        <v>131.64509022640001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3">
+        <v>38999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>947.52336040800003</v>
+      </c>
+      <c r="E9">
+        <v>966.80185797900003</v>
+      </c>
+      <c r="F9">
+        <v>574.35251868700004</v>
+      </c>
+      <c r="G9">
+        <v>37.900934416320005</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="3">
+        <v>38999</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9">
+        <v>3249.6485673400002</v>
+      </c>
+      <c r="M9">
+        <v>3262.6929946400001</v>
+      </c>
+      <c r="N9">
+        <v>267.83225210400002</v>
+      </c>
+      <c r="O9">
+        <v>129.98594269360001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39370</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>698.66869678099999</v>
+      </c>
+      <c r="E10">
+        <v>721.57707541299999</v>
+      </c>
+      <c r="F10">
+        <v>387.07868028299998</v>
+      </c>
+      <c r="G10">
+        <v>27.946747871239999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="3">
+        <v>39370</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10">
+        <v>3256.61611008</v>
+      </c>
+      <c r="M10">
+        <v>3269.6095406600002</v>
+      </c>
+      <c r="N10">
+        <v>396.73842589499998</v>
+      </c>
+      <c r="O10">
+        <v>130.26464440320001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39483</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>665.69018555900004</v>
+      </c>
+      <c r="E11">
+        <v>691.84098262700002</v>
+      </c>
+      <c r="F11">
+        <v>351.10435731799998</v>
+      </c>
+      <c r="G11">
+        <v>26.627607422360001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="3">
+        <v>39483</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11">
+        <v>3259.4503201399998</v>
+      </c>
+      <c r="M11">
+        <v>3272.45167094</v>
+      </c>
+      <c r="N11">
+        <v>396.635337204</v>
+      </c>
+      <c r="O11">
+        <v>130.37801280560001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3">
+        <v>39537</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>923.77809572299998</v>
+      </c>
+      <c r="E12">
+        <v>950.06334356900004</v>
+      </c>
+      <c r="F12">
+        <v>798.15092641700005</v>
+      </c>
+      <c r="G12">
+        <v>36.951123828919997</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="3">
+        <v>39537</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12">
+        <v>3333.8976456</v>
+      </c>
+      <c r="M12">
+        <v>3347.2641764499999</v>
+      </c>
+      <c r="N12">
+        <v>481.21284904800001</v>
+      </c>
+      <c r="O12">
+        <v>133.35590582399999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3">
+        <v>39734</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>557.89131853599997</v>
+      </c>
+      <c r="E13">
+        <v>585.94904801300004</v>
+      </c>
+      <c r="F13">
+        <v>301.367873508</v>
+      </c>
+      <c r="G13">
+        <v>22.315652741440001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="3">
+        <v>39734</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13">
+        <v>3271.4135777900001</v>
+      </c>
+      <c r="M13">
+        <v>3284.4659634200002</v>
+      </c>
+      <c r="N13">
+        <v>390.77231704000002</v>
+      </c>
+      <c r="O13">
+        <v>130.85654311160002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3">
+        <v>40098</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>717.30137279500002</v>
+      </c>
+      <c r="E14">
+        <v>742.50353579700004</v>
+      </c>
+      <c r="F14">
+        <v>340.62756545600001</v>
+      </c>
+      <c r="G14">
+        <v>28.6920549118</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="3">
+        <v>40098</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <v>3113.6588213099999</v>
+      </c>
+      <c r="M14">
+        <v>3126.3714611999999</v>
+      </c>
+      <c r="N14">
+        <v>340.07012288999999</v>
+      </c>
+      <c r="O14">
+        <v>124.54635285240001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3">
+        <v>40823</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>1085.49464182</v>
+      </c>
+      <c r="E15">
+        <v>1106.1335644799999</v>
+      </c>
+      <c r="F15">
+        <v>428.30564911699997</v>
+      </c>
+      <c r="G15">
+        <v>43.419785672799996</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="3">
+        <v>40823</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15">
+        <v>3136.30386894</v>
+      </c>
+      <c r="M15">
+        <v>3153.0321005300002</v>
+      </c>
+      <c r="N15">
+        <v>196.26415815499999</v>
+      </c>
+      <c r="O15">
+        <v>125.4521547576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3">
+        <v>41187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>1419.7640633000001</v>
+      </c>
+      <c r="E16">
+        <v>1439.3595611200001</v>
+      </c>
+      <c r="F16">
+        <v>512.44456825999998</v>
+      </c>
+      <c r="G16">
+        <v>56.790562532000003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="3">
+        <v>41187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16">
+        <v>3130.23483033</v>
+      </c>
+      <c r="M16">
+        <v>3145.5236241299999</v>
+      </c>
+      <c r="N16">
+        <v>166.360644329</v>
+      </c>
+      <c r="O16">
+        <v>125.2093932132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3">
+        <v>41540</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>1058.09808516</v>
+      </c>
+      <c r="E17">
+        <v>1077.4301998000001</v>
+      </c>
+      <c r="F17">
+        <v>626.99637297499999</v>
+      </c>
+      <c r="G17">
+        <v>42.323923406399999</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="3">
+        <v>41540</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17">
+        <v>3136.9664179599999</v>
+      </c>
+      <c r="M17">
+        <v>3149.6602091300001</v>
+      </c>
+      <c r="N17">
+        <v>203.20073176700001</v>
+      </c>
+      <c r="O17">
+        <v>125.4786567184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3">
+        <v>41908</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>584.55283722900003</v>
+      </c>
+      <c r="E18">
+        <v>613.253027008</v>
+      </c>
+      <c r="F18">
+        <v>314.78009722500002</v>
+      </c>
+      <c r="G18">
+        <v>23.382113489160002</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41908</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18">
+        <v>3241.3281178000002</v>
+      </c>
+      <c r="M18">
+        <v>3253.9703845899999</v>
+      </c>
+      <c r="N18">
+        <v>221.59351592600001</v>
+      </c>
+      <c r="O18">
+        <v>129.65312471200002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42272</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>605.63815728999998</v>
+      </c>
+      <c r="E19">
+        <v>638.21119408799996</v>
+      </c>
+      <c r="F19">
+        <v>65.403820580399994</v>
+      </c>
+      <c r="G19">
+        <v>24.225526291600001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="3">
+        <v>42272</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>3041.2350719900001</v>
+      </c>
+      <c r="M19">
+        <v>3054.5851113099998</v>
+      </c>
+      <c r="N19">
+        <v>168.79094499000001</v>
+      </c>
+      <c r="O19">
+        <v>121.6494028796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42646</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>541.18899215299996</v>
+      </c>
+      <c r="E20">
+        <v>573.10414692100005</v>
+      </c>
+      <c r="F20">
+        <v>10.9055921701</v>
+      </c>
+      <c r="G20">
+        <v>21.647559686119997</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="3">
+        <v>42646</v>
+      </c>
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20">
+        <v>3138.3996033100002</v>
+      </c>
+      <c r="M20">
+        <v>3152.3291679600002</v>
+      </c>
+      <c r="N20">
+        <v>130.319098661</v>
+      </c>
+      <c r="O20">
+        <v>125.53598413240002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -90578,794 +91710,794 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3">
-        <v>33034</v>
+        <v>37382</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2">
-        <v>776.18667648300004</v>
+        <v>1023.40969221</v>
       </c>
       <c r="E2">
-        <v>795.23962349600004</v>
+        <v>1056.22573134</v>
       </c>
       <c r="F2">
-        <v>595.02510340100002</v>
+        <v>540.09884908599997</v>
       </c>
       <c r="G2">
-        <v>31.047467059320002</v>
+        <v>40.936387688400004</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="3">
-        <v>33034</v>
+        <v>37382</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
       </c>
       <c r="L2">
-        <v>3385.2608656299999</v>
+        <v>547.67583346699996</v>
       </c>
       <c r="M2">
-        <v>3402.5280067799999</v>
+        <v>552.84299991</v>
       </c>
       <c r="N2">
-        <v>773.03306447099999</v>
+        <v>96.588308224299993</v>
       </c>
       <c r="O2">
-        <v>135.4104346252</v>
+        <v>21.907033338679998</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3">
-        <v>33447</v>
+        <v>37521</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3">
-        <v>1156.0264889600001</v>
+        <v>1055.2800532199999</v>
       </c>
       <c r="E3">
-        <v>1171.79326814</v>
+        <v>1089.7720422899999</v>
       </c>
       <c r="F3">
-        <v>964.74062965500002</v>
+        <v>496.37745291099998</v>
       </c>
       <c r="G3">
-        <v>46.241059558400003</v>
+        <v>42.211202128799997</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="3">
-        <v>33447</v>
+        <v>37521</v>
       </c>
       <c r="K3" t="s">
         <v>58</v>
       </c>
       <c r="L3">
-        <v>3335.25866688</v>
+        <v>538.05263479300004</v>
       </c>
       <c r="M3">
-        <v>3351.14931957</v>
+        <v>543.85227392199999</v>
       </c>
       <c r="N3">
-        <v>733.79994757300005</v>
+        <v>85.129534762399999</v>
       </c>
       <c r="O3">
-        <v>133.4103466752</v>
+        <v>21.52210539172</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3">
-        <v>37519</v>
+        <v>37738</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4">
-        <v>976.94910589400001</v>
+        <v>1102.44429154</v>
       </c>
       <c r="E4">
-        <v>992.69424866099996</v>
+        <v>1132.3140897799999</v>
       </c>
       <c r="F4">
-        <v>629.55173113800004</v>
+        <v>358.91883450099999</v>
       </c>
       <c r="G4">
-        <v>39.07796423576</v>
+        <v>44.0977716616</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3">
-        <v>37519</v>
+        <v>37738</v>
       </c>
       <c r="K4" t="s">
         <v>58</v>
       </c>
       <c r="L4">
-        <v>3272.9568109699999</v>
+        <v>502.56143869099998</v>
       </c>
       <c r="M4">
-        <v>3286.3819438099999</v>
+        <v>508.71187753700002</v>
       </c>
       <c r="N4">
-        <v>454.231445409</v>
+        <v>78.709913519899999</v>
       </c>
       <c r="O4">
-        <v>130.91827243879999</v>
+        <v>20.10245754764</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3">
-        <v>37738</v>
+        <v>37886</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5">
-        <v>962.45990499499999</v>
+        <v>1135.3122173700001</v>
       </c>
       <c r="E5">
-        <v>978.465541196</v>
+        <v>1162.3308958299999</v>
       </c>
       <c r="F5">
-        <v>594.20041659599997</v>
+        <v>297.77515266699999</v>
       </c>
       <c r="G5">
-        <v>38.498396199799998</v>
+        <v>45.412488694800004</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="3">
-        <v>37738</v>
+        <v>37886</v>
       </c>
       <c r="K5" t="s">
         <v>58</v>
       </c>
       <c r="L5">
-        <v>3225.9618459200001</v>
+        <v>458.72634759300001</v>
       </c>
       <c r="M5">
-        <v>3239.5672807400001</v>
+        <v>464.00841128000002</v>
       </c>
       <c r="N5">
-        <v>373.490699963</v>
+        <v>44.139196702500001</v>
       </c>
       <c r="O5">
-        <v>129.03847383679999</v>
+        <v>18.349053903720002</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3">
-        <v>37886</v>
+        <v>38325</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6">
-        <v>637.74497711200002</v>
+        <v>1735.85602079</v>
       </c>
       <c r="E6">
-        <v>656.90458891399999</v>
+        <v>1768.72958025</v>
       </c>
       <c r="F6">
-        <v>367.26695126300001</v>
+        <v>1853.3875612100001</v>
       </c>
       <c r="G6">
-        <v>25.509799084480001</v>
+        <v>69.434240831600007</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="3">
-        <v>37886</v>
+        <v>38325</v>
       </c>
       <c r="K6" t="s">
         <v>58</v>
       </c>
       <c r="L6">
-        <v>3222.1034728</v>
+        <v>604.73625545699997</v>
       </c>
       <c r="M6">
-        <v>3235.2915107899998</v>
+        <v>608.77924277900001</v>
       </c>
       <c r="N6">
-        <v>368.60697719500001</v>
+        <v>128.03710591000001</v>
       </c>
       <c r="O6">
-        <v>128.884138912</v>
+        <v>24.189450218280001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3">
-        <v>38352</v>
+        <v>38481</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
       </c>
       <c r="D7">
-        <v>972.10276599600002</v>
+        <v>1411.45634522</v>
       </c>
       <c r="E7">
-        <v>990.95481164700004</v>
+        <v>1445.6013876500001</v>
       </c>
       <c r="F7">
-        <v>913.03722972000003</v>
+        <v>1276.04833747</v>
       </c>
       <c r="G7">
-        <v>38.884110639840003</v>
+        <v>56.458253808800002</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="3">
-        <v>38352</v>
+        <v>38481</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
       </c>
       <c r="L7">
-        <v>3250.07443203</v>
+        <v>561.37657182500004</v>
       </c>
       <c r="M7">
-        <v>3262.4325926699998</v>
+        <v>567.19669723499999</v>
       </c>
       <c r="N7">
-        <v>475.111745235</v>
+        <v>129.695631728</v>
       </c>
       <c r="O7">
-        <v>130.0029772812</v>
+        <v>22.455062873000003</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3">
-        <v>38481</v>
+        <v>38999</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8">
-        <v>758.65250104300003</v>
+        <v>988.36174159300003</v>
       </c>
       <c r="E8">
-        <v>784.77748334199998</v>
+        <v>1026.9318368900001</v>
       </c>
       <c r="F8">
-        <v>522.31086014499999</v>
+        <v>340.13801387900003</v>
       </c>
       <c r="G8">
-        <v>30.346100041720003</v>
+        <v>39.534469663720003</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="3">
-        <v>38481</v>
+        <v>38999</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
       </c>
       <c r="L8">
-        <v>3291.1272556600002</v>
+        <v>519.58769359200005</v>
       </c>
       <c r="M8">
-        <v>3303.7399409499999</v>
+        <v>525.41751376900004</v>
       </c>
       <c r="N8">
-        <v>449.01045017199999</v>
+        <v>117.531156514</v>
       </c>
       <c r="O8">
-        <v>131.64509022640001</v>
+        <v>20.783507743680001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3">
-        <v>38999</v>
+        <v>39370</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="D9">
-        <v>947.52336040800003</v>
+        <v>1115.62245246</v>
       </c>
       <c r="E9">
-        <v>966.80185797900003</v>
+        <v>1151.2121946</v>
       </c>
       <c r="F9">
-        <v>574.35251868700004</v>
+        <v>222.10239966899999</v>
       </c>
       <c r="G9">
-        <v>37.900934416320005</v>
+        <v>44.624898098400003</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="3">
-        <v>38999</v>
+        <v>39370</v>
       </c>
       <c r="K9" t="s">
         <v>58</v>
       </c>
       <c r="L9">
-        <v>3249.6485673400002</v>
+        <v>484.27078414699997</v>
       </c>
       <c r="M9">
-        <v>3262.6929946400001</v>
+        <v>491.29362458200001</v>
       </c>
       <c r="N9">
-        <v>267.83225210400002</v>
+        <v>95.039802064499995</v>
       </c>
       <c r="O9">
-        <v>129.98594269360001</v>
+        <v>19.370831365880001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3">
-        <v>39370</v>
+        <v>39482</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
       <c r="D10">
-        <v>698.66869678099999</v>
+        <v>1087.74114777</v>
       </c>
       <c r="E10">
-        <v>721.57707541299999</v>
+        <v>1121.81268396</v>
       </c>
       <c r="F10">
-        <v>387.07868028299998</v>
+        <v>164.94702598000001</v>
       </c>
       <c r="G10">
-        <v>27.946747871239999</v>
+        <v>43.509645910800003</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3">
-        <v>39370</v>
+        <v>39482</v>
       </c>
       <c r="K10" t="s">
         <v>58</v>
       </c>
       <c r="L10">
-        <v>3256.61611008</v>
+        <v>479.70594340299999</v>
       </c>
       <c r="M10">
-        <v>3269.6095406600002</v>
+        <v>486.56561407300001</v>
       </c>
       <c r="N10">
-        <v>396.73842589499998</v>
+        <v>97.046912698699998</v>
       </c>
       <c r="O10">
-        <v>130.26464440320001</v>
+        <v>19.188237736120001</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3">
-        <v>39483</v>
+        <v>39537</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>665.69018555900004</v>
+        <v>1275.8831648099999</v>
       </c>
       <c r="E11">
-        <v>691.84098262700002</v>
+        <v>1318.5851898000001</v>
       </c>
       <c r="F11">
-        <v>351.10435731799998</v>
+        <v>2354.7088528600002</v>
       </c>
       <c r="G11">
-        <v>26.627607422360001</v>
+        <v>51.035326592399997</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="3">
-        <v>39483</v>
+        <v>39537</v>
       </c>
       <c r="K11" t="s">
         <v>58</v>
       </c>
       <c r="L11">
-        <v>3259.4503201399998</v>
+        <v>1128.1050232699999</v>
       </c>
       <c r="M11">
-        <v>3272.45167094</v>
+        <v>1136.6514155699999</v>
       </c>
       <c r="N11">
-        <v>396.635337204</v>
+        <v>389.66969566199998</v>
       </c>
       <c r="O11">
-        <v>130.37801280560001</v>
+        <v>45.124200930800001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3">
-        <v>39537</v>
+        <v>39713</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
       </c>
       <c r="D12">
-        <v>923.77809572299998</v>
+        <v>1292.69480707</v>
       </c>
       <c r="E12">
-        <v>950.06334356900004</v>
+        <v>1333.4248801399999</v>
       </c>
       <c r="F12">
-        <v>798.15092641700005</v>
+        <v>1764.0708821200001</v>
       </c>
       <c r="G12">
-        <v>36.951123828919997</v>
+        <v>51.7077922828</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="3">
-        <v>39537</v>
+        <v>39713</v>
       </c>
       <c r="K12" t="s">
         <v>58</v>
       </c>
       <c r="L12">
-        <v>3333.8976456</v>
+        <v>940.74646209900004</v>
       </c>
       <c r="M12">
-        <v>3347.2641764499999</v>
+        <v>950.17015199900004</v>
       </c>
       <c r="N12">
-        <v>481.21284904800001</v>
+        <v>224.77366946000001</v>
       </c>
       <c r="O12">
-        <v>133.35590582399999</v>
+        <v>37.62985848396</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3">
-        <v>39734</v>
+        <v>40098</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
       <c r="D13">
-        <v>557.89131853599997</v>
+        <v>926.90571109799998</v>
       </c>
       <c r="E13">
-        <v>585.94904801300004</v>
+        <v>974.45461123899997</v>
       </c>
       <c r="F13">
-        <v>301.367873508</v>
+        <v>920.36921924599994</v>
       </c>
       <c r="G13">
-        <v>22.315652741440001</v>
+        <v>37.076228443920002</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="3">
-        <v>39734</v>
+        <v>40098</v>
       </c>
       <c r="K13" t="s">
         <v>58</v>
       </c>
       <c r="L13">
-        <v>3271.4135777900001</v>
+        <v>783.27846319900004</v>
       </c>
       <c r="M13">
-        <v>3284.4659634200002</v>
+        <v>795.90509372300005</v>
       </c>
       <c r="N13">
-        <v>390.77231704000002</v>
+        <v>228.61814991400001</v>
       </c>
       <c r="O13">
-        <v>130.85654311160002</v>
+        <v>31.331138527960004</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3">
-        <v>40098</v>
+        <v>40823</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14">
-        <v>717.30137279500002</v>
+        <v>1663.6335482500001</v>
       </c>
       <c r="E14">
-        <v>742.50353579700004</v>
+        <v>1687.6576112499999</v>
       </c>
       <c r="F14">
-        <v>340.62756545600001</v>
+        <v>572.85195747099999</v>
       </c>
       <c r="G14">
-        <v>28.6920549118</v>
+        <v>66.545341930000006</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="3">
-        <v>40098</v>
+        <v>40823</v>
       </c>
       <c r="K14" t="s">
         <v>58</v>
       </c>
       <c r="L14">
-        <v>3113.6588213099999</v>
+        <v>426.44144495900002</v>
       </c>
       <c r="M14">
-        <v>3126.3714611999999</v>
+        <v>436.29949186699997</v>
       </c>
       <c r="N14">
-        <v>340.07012288999999</v>
+        <v>97.055450816299995</v>
       </c>
       <c r="O14">
-        <v>124.54635285240001</v>
+        <v>17.057657798360001</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3">
-        <v>40823</v>
+        <v>41187</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
       <c r="D15">
-        <v>1085.49464182</v>
+        <v>1257.5549537700001</v>
       </c>
       <c r="E15">
-        <v>1106.1335644799999</v>
+        <v>1287.1259473099999</v>
       </c>
       <c r="F15">
-        <v>428.30564911699997</v>
+        <v>532.87853842200002</v>
       </c>
       <c r="G15">
-        <v>43.419785672799996</v>
+        <v>50.302198150800002</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="3">
-        <v>40823</v>
+        <v>41187</v>
       </c>
       <c r="K15" t="s">
         <v>58</v>
       </c>
       <c r="L15">
-        <v>3136.30386894</v>
+        <v>435.98095500099998</v>
       </c>
       <c r="M15">
-        <v>3153.0321005300002</v>
+        <v>446.273975001</v>
       </c>
       <c r="N15">
-        <v>196.26415815499999</v>
+        <v>130.86091339199999</v>
       </c>
       <c r="O15">
-        <v>125.4521547576</v>
+        <v>17.439238200039998</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3">
-        <v>41187</v>
+        <v>41540</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
       </c>
       <c r="D16">
-        <v>1419.7640633000001</v>
+        <v>1102.01937531</v>
       </c>
       <c r="E16">
-        <v>1439.3595611200001</v>
+        <v>1146.74398176</v>
       </c>
       <c r="F16">
-        <v>512.44456825999998</v>
+        <v>642.760816288</v>
       </c>
       <c r="G16">
-        <v>56.790562532000003</v>
+        <v>44.080775012400004</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="3">
-        <v>41187</v>
+        <v>41540</v>
       </c>
       <c r="K16" t="s">
         <v>58</v>
       </c>
       <c r="L16">
-        <v>3130.23483033</v>
+        <v>549.98134005999998</v>
       </c>
       <c r="M16">
-        <v>3145.5236241299999</v>
+        <v>557.08528061499999</v>
       </c>
       <c r="N16">
-        <v>166.360644329</v>
+        <v>214.54007439</v>
       </c>
       <c r="O16">
-        <v>125.2093932132</v>
+        <v>21.9992536024</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3">
-        <v>41540</v>
+        <v>41908</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
       <c r="D17">
-        <v>1058.09808516</v>
+        <v>782.70876573400005</v>
       </c>
       <c r="E17">
-        <v>1077.4301998000001</v>
+        <v>836.55094230400005</v>
       </c>
       <c r="F17">
-        <v>626.99637297499999</v>
+        <v>464.40652664200002</v>
       </c>
       <c r="G17">
-        <v>42.323923406399999</v>
+        <v>31.308350629360003</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="3">
-        <v>41540</v>
+        <v>41908</v>
       </c>
       <c r="K17" t="s">
         <v>58</v>
       </c>
       <c r="L17">
-        <v>3136.9664179599999</v>
+        <v>760.91863963900005</v>
       </c>
       <c r="M17">
-        <v>3149.6602091300001</v>
+        <v>777.62082646099998</v>
       </c>
       <c r="N17">
-        <v>203.20073176700001</v>
+        <v>260.24393559200001</v>
       </c>
       <c r="O17">
-        <v>125.4786567184</v>
+        <v>30.436745585560004</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3">
-        <v>41908</v>
+        <v>42272</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
       <c r="D18">
-        <v>584.55283722900003</v>
+        <v>988.54814121200002</v>
       </c>
       <c r="E18">
-        <v>613.253027008</v>
+        <v>1025.3874197600001</v>
       </c>
       <c r="F18">
-        <v>314.78009722500002</v>
+        <v>317.97383027000001</v>
       </c>
       <c r="G18">
-        <v>23.382113489160002</v>
+        <v>39.541925648480003</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="3">
-        <v>41908</v>
+        <v>42272</v>
       </c>
       <c r="K18" t="s">
         <v>58</v>
       </c>
       <c r="L18">
-        <v>3241.3281178000002</v>
+        <v>624.13232799399998</v>
       </c>
       <c r="M18">
-        <v>3253.9703845899999</v>
+        <v>641.73846301799995</v>
       </c>
       <c r="N18">
-        <v>221.59351592600001</v>
+        <v>215.05162947599999</v>
       </c>
       <c r="O18">
-        <v>129.65312471200002</v>
+        <v>24.965293119759998</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3">
-        <v>42272</v>
+        <v>42646</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
       <c r="D19">
-        <v>605.63815728999998</v>
+        <v>911.14269752999996</v>
       </c>
       <c r="E19">
-        <v>638.21119408799996</v>
+        <v>947.31349428299995</v>
       </c>
       <c r="F19">
-        <v>65.403820580399994</v>
+        <v>102.157058527</v>
       </c>
       <c r="G19">
-        <v>24.225526291600001</v>
+        <v>36.445707901200002</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="3">
-        <v>42272</v>
+        <v>42646</v>
       </c>
       <c r="K19" t="s">
         <v>58</v>
       </c>
       <c r="L19">
-        <v>3041.2350719900001</v>
+        <v>544.26666875499996</v>
       </c>
       <c r="M19">
-        <v>3054.5851113099998</v>
+        <v>557.00323942700004</v>
       </c>
       <c r="N19">
-        <v>168.79094499000001</v>
+        <v>156.18777125</v>
       </c>
       <c r="O19">
-        <v>121.6494028796</v>
+        <v>21.7706667502</v>
       </c>
     </row>
   </sheetData>
@@ -91373,8 +92505,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -91439,750 +92572,750 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3">
-        <v>37382</v>
+        <v>37520</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2">
-        <v>1023.40969221</v>
+        <v>2160.35816987</v>
       </c>
       <c r="E2">
-        <v>1056.22573134</v>
+        <v>2204.12216941</v>
       </c>
       <c r="F2">
-        <v>540.09884908599997</v>
+        <v>1096.2000773100001</v>
       </c>
       <c r="G2">
-        <v>40.936387688400004</v>
+        <v>86.414326794800004</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="3">
-        <v>37382</v>
+        <v>37520</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
       </c>
       <c r="L2">
-        <v>547.67583346699996</v>
+        <v>35.624204471299997</v>
       </c>
       <c r="M2">
-        <v>552.84299991</v>
+        <v>36.313473778400002</v>
       </c>
       <c r="N2">
-        <v>96.588308224299993</v>
+        <v>1.7112132708100001</v>
       </c>
       <c r="O2">
-        <v>21.907033338679998</v>
+        <v>1.4249681788519999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3">
-        <v>37521</v>
+        <v>37737</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3">
-        <v>1055.2800532199999</v>
+        <v>2041.61933385</v>
       </c>
       <c r="E3">
-        <v>1089.7720422899999</v>
+        <v>2073.4099618199998</v>
       </c>
       <c r="F3">
-        <v>496.37745291099998</v>
+        <v>872.68808172599995</v>
       </c>
       <c r="G3">
-        <v>42.211202128799997</v>
+        <v>81.664773354000005</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="3">
-        <v>37521</v>
+        <v>37737</v>
       </c>
       <c r="K3" t="s">
         <v>58</v>
       </c>
       <c r="L3">
-        <v>538.05263479300004</v>
+        <v>36.168363665100003</v>
       </c>
       <c r="M3">
-        <v>543.85227392199999</v>
+        <v>36.820658012000003</v>
       </c>
       <c r="N3">
-        <v>85.129534762399999</v>
+        <v>2.69850957924</v>
       </c>
       <c r="O3">
-        <v>21.52210539172</v>
+        <v>1.4467345466040002</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3">
-        <v>37738</v>
+        <v>37885</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4">
-        <v>1102.44429154</v>
+        <v>2091.5249230700001</v>
       </c>
       <c r="E4">
-        <v>1132.3140897799999</v>
+        <v>2118.69461323</v>
       </c>
       <c r="F4">
-        <v>358.91883450099999</v>
+        <v>872.25781676999998</v>
       </c>
       <c r="G4">
-        <v>44.0977716616</v>
+        <v>83.66099692280001</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3">
-        <v>37738</v>
+        <v>37885</v>
       </c>
       <c r="K4" t="s">
         <v>58</v>
       </c>
       <c r="L4">
-        <v>502.56143869099998</v>
+        <v>40.7317320704</v>
       </c>
       <c r="M4">
-        <v>508.71187753700002</v>
+        <v>41.719282582699996</v>
       </c>
       <c r="N4">
-        <v>78.709913519899999</v>
+        <v>3.0063415872100001</v>
       </c>
       <c r="O4">
-        <v>20.10245754764</v>
+        <v>1.629269282816</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3">
-        <v>37886</v>
+        <v>38325</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5">
-        <v>1135.3122173700001</v>
+        <v>2087.5228549600001</v>
       </c>
       <c r="E5">
-        <v>1162.3308958299999</v>
+        <v>2115.7877966800002</v>
       </c>
       <c r="F5">
-        <v>297.77515266699999</v>
+        <v>1112.1585491000001</v>
       </c>
       <c r="G5">
-        <v>45.412488694800004</v>
+        <v>83.500914198400011</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="3">
-        <v>37886</v>
+        <v>38325</v>
       </c>
       <c r="K5" t="s">
         <v>58</v>
       </c>
       <c r="L5">
-        <v>458.72634759300001</v>
+        <v>47.458910424700001</v>
       </c>
       <c r="M5">
-        <v>464.00841128000002</v>
+        <v>48.195771482700003</v>
       </c>
       <c r="N5">
-        <v>44.139196702500001</v>
+        <v>4.97639853041</v>
       </c>
       <c r="O5">
-        <v>18.349053903720002</v>
+        <v>1.8983564169880001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3">
-        <v>38325</v>
+        <v>38480</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6">
-        <v>1735.85602079</v>
+        <v>1771.1839295299999</v>
       </c>
       <c r="E6">
-        <v>1768.72958025</v>
+        <v>1804.83714386</v>
       </c>
       <c r="F6">
-        <v>1853.3875612100001</v>
+        <v>384.16485804500002</v>
       </c>
       <c r="G6">
-        <v>69.434240831600007</v>
+        <v>70.847357181199996</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="3">
-        <v>38325</v>
+        <v>38480</v>
       </c>
       <c r="K6" t="s">
         <v>58</v>
       </c>
       <c r="L6">
-        <v>604.73625545699997</v>
+        <v>50.491498252200003</v>
       </c>
       <c r="M6">
-        <v>608.77924277900001</v>
+        <v>51.241157273699997</v>
       </c>
       <c r="N6">
-        <v>128.03710591000001</v>
+        <v>6.8158503006900002</v>
       </c>
       <c r="O6">
-        <v>24.189450218280001</v>
+        <v>2.0196599300880003</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3">
-        <v>38481</v>
+        <v>38998</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
       </c>
       <c r="D7">
-        <v>1411.45634522</v>
+        <v>1984.3326371400001</v>
       </c>
       <c r="E7">
-        <v>1445.6013876500001</v>
+        <v>2023.8292028000001</v>
       </c>
       <c r="F7">
-        <v>1276.04833747</v>
+        <v>317.69219807500002</v>
       </c>
       <c r="G7">
-        <v>56.458253808800002</v>
+        <v>79.3733054856</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="3">
-        <v>38481</v>
+        <v>38998</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
       </c>
       <c r="L7">
-        <v>561.37657182500004</v>
+        <v>43.002512246499997</v>
       </c>
       <c r="M7">
-        <v>567.19669723499999</v>
+        <v>43.841382416000002</v>
       </c>
       <c r="N7">
-        <v>129.695631728</v>
+        <v>3.41797727318</v>
       </c>
       <c r="O7">
-        <v>22.455062873000003</v>
+        <v>1.7201004898599999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3">
-        <v>38999</v>
+        <v>39369</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8">
-        <v>988.36174159300003</v>
+        <v>2024.14553946</v>
       </c>
       <c r="E8">
-        <v>1026.9318368900001</v>
+        <v>2059.72089985</v>
       </c>
       <c r="F8">
-        <v>340.13801387900003</v>
+        <v>525.473374863</v>
       </c>
       <c r="G8">
-        <v>39.534469663720003</v>
+        <v>80.965821578399996</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3">
-        <v>38999</v>
+        <v>39369</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
       </c>
       <c r="L8">
-        <v>519.58769359200005</v>
+        <v>37.340812952999997</v>
       </c>
       <c r="M8">
-        <v>525.41751376900004</v>
+        <v>37.942547320400003</v>
       </c>
       <c r="N8">
-        <v>117.531156514</v>
+        <v>2.1583916200500002</v>
       </c>
       <c r="O8">
-        <v>20.783507743680001</v>
+        <v>1.4936325181199999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3">
-        <v>39370</v>
+        <v>39482</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="D9">
-        <v>1115.62245246</v>
+        <v>2121.9168144800001</v>
       </c>
       <c r="E9">
-        <v>1151.2121946</v>
+        <v>2155.9633192699998</v>
       </c>
       <c r="F9">
-        <v>222.10239966899999</v>
+        <v>595.10929192200001</v>
       </c>
       <c r="G9">
-        <v>44.624898098400003</v>
+        <v>84.876672579200005</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="3">
-        <v>39370</v>
+        <v>39482</v>
       </c>
       <c r="K9" t="s">
         <v>58</v>
       </c>
       <c r="L9">
-        <v>484.27078414699997</v>
+        <v>35.799452598599999</v>
       </c>
       <c r="M9">
-        <v>491.29362458200001</v>
+        <v>36.401574086499998</v>
       </c>
       <c r="N9">
-        <v>95.039802064499995</v>
+        <v>2.0557729758100001</v>
       </c>
       <c r="O9">
-        <v>19.370831365880001</v>
+        <v>1.431978103944</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3">
-        <v>39482</v>
+        <v>39536</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
       <c r="D10">
-        <v>1087.74114777</v>
+        <v>2174.9923311399998</v>
       </c>
       <c r="E10">
-        <v>1121.81268396</v>
+        <v>2215.80248725</v>
       </c>
       <c r="F10">
-        <v>164.94702598000001</v>
+        <v>1201.1652216299999</v>
       </c>
       <c r="G10">
-        <v>43.509645910800003</v>
+        <v>86.9996932456</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="3">
-        <v>39482</v>
+        <v>39536</v>
       </c>
       <c r="K10" t="s">
         <v>58</v>
       </c>
       <c r="L10">
-        <v>479.70594340299999</v>
+        <v>58.896706086000002</v>
       </c>
       <c r="M10">
-        <v>486.56561407300001</v>
+        <v>59.765397007700003</v>
       </c>
       <c r="N10">
-        <v>97.046912698699998</v>
+        <v>4.7230654018599996</v>
       </c>
       <c r="O10">
-        <v>19.188237736120001</v>
+        <v>2.3558682434400002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3">
-        <v>39537</v>
+        <v>39733</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>1275.8831648099999</v>
+        <v>2309.2862214199999</v>
       </c>
       <c r="E11">
-        <v>1318.5851898000001</v>
+        <v>2332.3444536299999</v>
       </c>
       <c r="F11">
-        <v>2354.7088528600002</v>
+        <v>1218.128919</v>
       </c>
       <c r="G11">
-        <v>51.035326592399997</v>
+        <v>92.371448856800001</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="3">
-        <v>39537</v>
+        <v>39733</v>
       </c>
       <c r="K11" t="s">
         <v>58</v>
       </c>
       <c r="L11">
-        <v>1128.1050232699999</v>
+        <v>42.853241712200003</v>
       </c>
       <c r="M11">
-        <v>1136.6514155699999</v>
+        <v>43.325579258099999</v>
       </c>
       <c r="N11">
-        <v>389.66969566199998</v>
+        <v>3.1785248181000001</v>
       </c>
       <c r="O11">
-        <v>45.124200930800001</v>
+        <v>1.7141296684880001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3">
-        <v>39713</v>
+        <v>40097</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
       </c>
       <c r="D12">
-        <v>1292.69480707</v>
+        <v>2031.2072660199999</v>
       </c>
       <c r="E12">
-        <v>1333.4248801399999</v>
+        <v>2054.8286052799999</v>
       </c>
       <c r="F12">
-        <v>1764.0708821200001</v>
+        <v>801.31733975600002</v>
       </c>
       <c r="G12">
-        <v>51.7077922828</v>
+        <v>81.248290640799993</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="3">
-        <v>39713</v>
+        <v>40097</v>
       </c>
       <c r="K12" t="s">
         <v>58</v>
       </c>
       <c r="L12">
-        <v>940.74646209900004</v>
+        <v>47.426833518400002</v>
       </c>
       <c r="M12">
-        <v>950.17015199900004</v>
+        <v>48.035888231100003</v>
       </c>
       <c r="N12">
-        <v>224.77366946000001</v>
+        <v>4.5978632014900001</v>
       </c>
       <c r="O12">
-        <v>37.62985848396</v>
+        <v>1.8970733407360001</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3">
-        <v>40098</v>
+        <v>40822</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
       <c r="D13">
-        <v>926.90571109799998</v>
+        <v>2501.8782486499999</v>
       </c>
       <c r="E13">
-        <v>974.45461123899997</v>
+        <v>2527.8531173400002</v>
       </c>
       <c r="F13">
-        <v>920.36921924599994</v>
+        <v>1762.3269949400001</v>
       </c>
       <c r="G13">
-        <v>37.076228443920002</v>
+        <v>100.075129946</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3">
-        <v>40098</v>
+        <v>40822</v>
       </c>
       <c r="K13" t="s">
         <v>58</v>
       </c>
       <c r="L13">
-        <v>783.27846319900004</v>
+        <v>41.615103790399999</v>
       </c>
       <c r="M13">
-        <v>795.90509372300005</v>
+        <v>42.572896178100002</v>
       </c>
       <c r="N13">
-        <v>228.61814991400001</v>
+        <v>4.2701369176000004</v>
       </c>
       <c r="O13">
-        <v>31.331138527960004</v>
+        <v>1.6646041516159999</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3">
-        <v>40823</v>
+        <v>41186</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14">
-        <v>1663.6335482500001</v>
+        <v>1935.2372070500001</v>
       </c>
       <c r="E14">
-        <v>1687.6576112499999</v>
+        <v>1971.9235664600001</v>
       </c>
       <c r="F14">
-        <v>572.85195747099999</v>
+        <v>710.33782904099996</v>
       </c>
       <c r="G14">
-        <v>66.545341930000006</v>
+        <v>77.409488281999998</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="3">
-        <v>40823</v>
+        <v>41186</v>
       </c>
       <c r="K14" t="s">
         <v>58</v>
       </c>
       <c r="L14">
-        <v>426.44144495900002</v>
+        <v>44.206656742900002</v>
       </c>
       <c r="M14">
-        <v>436.29949186699997</v>
+        <v>45.161047728</v>
       </c>
       <c r="N14">
-        <v>97.055450816299995</v>
+        <v>5.8286994450599998</v>
       </c>
       <c r="O14">
-        <v>17.057657798360001</v>
+        <v>1.7682662697160001</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3">
-        <v>41187</v>
+        <v>41540</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
       <c r="D15">
-        <v>1257.5549537700001</v>
+        <v>2165.39849972</v>
       </c>
       <c r="E15">
-        <v>1287.1259473099999</v>
+        <v>2191.6256084199999</v>
       </c>
       <c r="F15">
-        <v>532.87853842200002</v>
+        <v>1152.51395501</v>
       </c>
       <c r="G15">
-        <v>50.302198150800002</v>
+        <v>86.615939988800008</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3">
-        <v>41187</v>
+        <v>41540</v>
       </c>
       <c r="K15" t="s">
         <v>58</v>
       </c>
       <c r="L15">
-        <v>435.98095500099998</v>
+        <v>52.587658418799997</v>
       </c>
       <c r="M15">
-        <v>446.273975001</v>
+        <v>53.378546213299998</v>
       </c>
       <c r="N15">
-        <v>130.86091339199999</v>
+        <v>6.3765980598800001</v>
       </c>
       <c r="O15">
-        <v>17.439238200039998</v>
+        <v>2.1035063367519999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3">
-        <v>41540</v>
+        <v>41907</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
       </c>
       <c r="D16">
-        <v>1102.01937531</v>
+        <v>1867.10609585</v>
       </c>
       <c r="E16">
-        <v>1146.74398176</v>
+        <v>1908.02827045</v>
       </c>
       <c r="F16">
-        <v>642.760816288</v>
+        <v>701.82602003700003</v>
       </c>
       <c r="G16">
-        <v>44.080775012400004</v>
+        <v>74.684243834</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="3">
-        <v>41540</v>
+        <v>41907</v>
       </c>
       <c r="K16" t="s">
         <v>58</v>
       </c>
       <c r="L16">
-        <v>549.98134005999998</v>
+        <v>200.579547085</v>
       </c>
       <c r="M16">
-        <v>557.08528061499999</v>
+        <v>202.273167409</v>
       </c>
       <c r="N16">
-        <v>214.54007439</v>
+        <v>25.112692619499999</v>
       </c>
       <c r="O16">
-        <v>21.9992536024</v>
+        <v>8.0231818833999995</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3">
-        <v>41908</v>
+        <v>42271</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
       <c r="D17">
-        <v>782.70876573400005</v>
+        <v>2042.6842729499999</v>
       </c>
       <c r="E17">
-        <v>836.55094230400005</v>
+        <v>2079.4803349899998</v>
       </c>
       <c r="F17">
-        <v>464.40652664200002</v>
+        <v>1152.6093629500001</v>
       </c>
       <c r="G17">
-        <v>31.308350629360003</v>
+        <v>81.707370917999995</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="3">
-        <v>41908</v>
+        <v>42271</v>
       </c>
       <c r="K17" t="s">
         <v>58</v>
       </c>
       <c r="L17">
-        <v>760.91863963900005</v>
+        <v>241.839996657</v>
       </c>
       <c r="M17">
-        <v>777.62082646099998</v>
+        <v>244.49781982900001</v>
       </c>
       <c r="N17">
-        <v>260.24393559200001</v>
+        <v>44.7952145653</v>
       </c>
       <c r="O17">
-        <v>30.436745585560004</v>
+        <v>9.67359986628</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3">
-        <v>42272</v>
+        <v>42645</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
       <c r="D18">
-        <v>988.54814121200002</v>
+        <v>2048.8136735899998</v>
       </c>
       <c r="E18">
-        <v>1025.3874197600001</v>
+        <v>2083.3066401000001</v>
       </c>
       <c r="F18">
-        <v>317.97383027000001</v>
+        <v>1378.11973653</v>
       </c>
       <c r="G18">
-        <v>39.541925648480003</v>
+        <v>81.952546943599998</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="3">
-        <v>42272</v>
+        <v>42645</v>
       </c>
       <c r="K18" t="s">
         <v>58</v>
       </c>
       <c r="L18">
-        <v>624.13232799399998</v>
+        <v>257.62699535199999</v>
       </c>
       <c r="M18">
-        <v>641.73846301799995</v>
+        <v>260.69869036699998</v>
       </c>
       <c r="N18">
-        <v>215.05162947599999</v>
+        <v>50.967413269399998</v>
       </c>
       <c r="O18">
-        <v>24.965293119759998</v>
+        <v>10.305079814080001</v>
       </c>
     </row>
   </sheetData>
@@ -92190,9 +93323,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:O1048576"/>
@@ -92256,779 +93390,6 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3">
-        <v>37520</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>2160.35816987</v>
-      </c>
-      <c r="E2">
-        <v>2204.12216941</v>
-      </c>
-      <c r="F2">
-        <v>1096.2000773100001</v>
-      </c>
-      <c r="G2">
-        <v>86.414326794800004</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3">
-        <v>37520</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2">
-        <v>35.624204471299997</v>
-      </c>
-      <c r="M2">
-        <v>36.313473778400002</v>
-      </c>
-      <c r="N2">
-        <v>1.7112132708100001</v>
-      </c>
-      <c r="O2">
-        <v>1.4249681788519999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="3">
-        <v>37737</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3">
-        <v>2041.61933385</v>
-      </c>
-      <c r="E3">
-        <v>2073.4099618199998</v>
-      </c>
-      <c r="F3">
-        <v>872.68808172599995</v>
-      </c>
-      <c r="G3">
-        <v>81.664773354000005</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="3">
-        <v>37737</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3">
-        <v>36.168363665100003</v>
-      </c>
-      <c r="M3">
-        <v>36.820658012000003</v>
-      </c>
-      <c r="N3">
-        <v>2.69850957924</v>
-      </c>
-      <c r="O3">
-        <v>1.4467345466040002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3">
-        <v>37885</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4">
-        <v>2091.5249230700001</v>
-      </c>
-      <c r="E4">
-        <v>2118.69461323</v>
-      </c>
-      <c r="F4">
-        <v>872.25781676999998</v>
-      </c>
-      <c r="G4">
-        <v>83.66099692280001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="3">
-        <v>37885</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4">
-        <v>40.7317320704</v>
-      </c>
-      <c r="M4">
-        <v>41.719282582699996</v>
-      </c>
-      <c r="N4">
-        <v>3.0063415872100001</v>
-      </c>
-      <c r="O4">
-        <v>1.629269282816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3">
-        <v>38325</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
-        <v>2087.5228549600001</v>
-      </c>
-      <c r="E5">
-        <v>2115.7877966800002</v>
-      </c>
-      <c r="F5">
-        <v>1112.1585491000001</v>
-      </c>
-      <c r="G5">
-        <v>83.500914198400011</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="3">
-        <v>38325</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5">
-        <v>47.458910424700001</v>
-      </c>
-      <c r="M5">
-        <v>48.195771482700003</v>
-      </c>
-      <c r="N5">
-        <v>4.97639853041</v>
-      </c>
-      <c r="O5">
-        <v>1.8983564169880001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="3">
-        <v>38480</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>1771.1839295299999</v>
-      </c>
-      <c r="E6">
-        <v>1804.83714386</v>
-      </c>
-      <c r="F6">
-        <v>384.16485804500002</v>
-      </c>
-      <c r="G6">
-        <v>70.847357181199996</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="3">
-        <v>38480</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6">
-        <v>50.491498252200003</v>
-      </c>
-      <c r="M6">
-        <v>51.241157273699997</v>
-      </c>
-      <c r="N6">
-        <v>6.8158503006900002</v>
-      </c>
-      <c r="O6">
-        <v>2.0196599300880003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="3">
-        <v>38998</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>1984.3326371400001</v>
-      </c>
-      <c r="E7">
-        <v>2023.8292028000001</v>
-      </c>
-      <c r="F7">
-        <v>317.69219807500002</v>
-      </c>
-      <c r="G7">
-        <v>79.3733054856</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="3">
-        <v>38998</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7">
-        <v>43.002512246499997</v>
-      </c>
-      <c r="M7">
-        <v>43.841382416000002</v>
-      </c>
-      <c r="N7">
-        <v>3.41797727318</v>
-      </c>
-      <c r="O7">
-        <v>1.7201004898599999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="3">
-        <v>39369</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>2024.14553946</v>
-      </c>
-      <c r="E8">
-        <v>2059.72089985</v>
-      </c>
-      <c r="F8">
-        <v>525.473374863</v>
-      </c>
-      <c r="G8">
-        <v>80.965821578399996</v>
-      </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="3">
-        <v>39369</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8">
-        <v>37.340812952999997</v>
-      </c>
-      <c r="M8">
-        <v>37.942547320400003</v>
-      </c>
-      <c r="N8">
-        <v>2.1583916200500002</v>
-      </c>
-      <c r="O8">
-        <v>1.4936325181199999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3">
-        <v>39482</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>2121.9168144800001</v>
-      </c>
-      <c r="E9">
-        <v>2155.9633192699998</v>
-      </c>
-      <c r="F9">
-        <v>595.10929192200001</v>
-      </c>
-      <c r="G9">
-        <v>84.876672579200005</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="3">
-        <v>39482</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9">
-        <v>35.799452598599999</v>
-      </c>
-      <c r="M9">
-        <v>36.401574086499998</v>
-      </c>
-      <c r="N9">
-        <v>2.0557729758100001</v>
-      </c>
-      <c r="O9">
-        <v>1.431978103944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="3">
-        <v>39536</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>2174.9923311399998</v>
-      </c>
-      <c r="E10">
-        <v>2215.80248725</v>
-      </c>
-      <c r="F10">
-        <v>1201.1652216299999</v>
-      </c>
-      <c r="G10">
-        <v>86.9996932456</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="3">
-        <v>39536</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10">
-        <v>58.896706086000002</v>
-      </c>
-      <c r="M10">
-        <v>59.765397007700003</v>
-      </c>
-      <c r="N10">
-        <v>4.7230654018599996</v>
-      </c>
-      <c r="O10">
-        <v>2.3558682434400002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="3">
-        <v>39733</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>2309.2862214199999</v>
-      </c>
-      <c r="E11">
-        <v>2332.3444536299999</v>
-      </c>
-      <c r="F11">
-        <v>1218.128919</v>
-      </c>
-      <c r="G11">
-        <v>92.371448856800001</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="3">
-        <v>39733</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11">
-        <v>42.853241712200003</v>
-      </c>
-      <c r="M11">
-        <v>43.325579258099999</v>
-      </c>
-      <c r="N11">
-        <v>3.1785248181000001</v>
-      </c>
-      <c r="O11">
-        <v>1.7141296684880001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="3">
-        <v>40097</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>2031.2072660199999</v>
-      </c>
-      <c r="E12">
-        <v>2054.8286052799999</v>
-      </c>
-      <c r="F12">
-        <v>801.31733975600002</v>
-      </c>
-      <c r="G12">
-        <v>81.248290640799993</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="3">
-        <v>40097</v>
-      </c>
-      <c r="K12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12">
-        <v>47.426833518400002</v>
-      </c>
-      <c r="M12">
-        <v>48.035888231100003</v>
-      </c>
-      <c r="N12">
-        <v>4.5978632014900001</v>
-      </c>
-      <c r="O12">
-        <v>1.8970733407360001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="3">
-        <v>40822</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>2501.8782486499999</v>
-      </c>
-      <c r="E13">
-        <v>2527.8531173400002</v>
-      </c>
-      <c r="F13">
-        <v>1762.3269949400001</v>
-      </c>
-      <c r="G13">
-        <v>100.075129946</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="3">
-        <v>40822</v>
-      </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13">
-        <v>41.615103790399999</v>
-      </c>
-      <c r="M13">
-        <v>42.572896178100002</v>
-      </c>
-      <c r="N13">
-        <v>4.2701369176000004</v>
-      </c>
-      <c r="O13">
-        <v>1.6646041516159999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="3">
-        <v>41186</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14">
-        <v>1935.2372070500001</v>
-      </c>
-      <c r="E14">
-        <v>1971.9235664600001</v>
-      </c>
-      <c r="F14">
-        <v>710.33782904099996</v>
-      </c>
-      <c r="G14">
-        <v>77.409488281999998</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="3">
-        <v>41186</v>
-      </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14">
-        <v>44.206656742900002</v>
-      </c>
-      <c r="M14">
-        <v>45.161047728</v>
-      </c>
-      <c r="N14">
-        <v>5.8286994450599998</v>
-      </c>
-      <c r="O14">
-        <v>1.7682662697160001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3">
-        <v>41540</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <v>2165.39849972</v>
-      </c>
-      <c r="E15">
-        <v>2191.6256084199999</v>
-      </c>
-      <c r="F15">
-        <v>1152.51395501</v>
-      </c>
-      <c r="G15">
-        <v>86.615939988800008</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="3">
-        <v>41540</v>
-      </c>
-      <c r="K15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15">
-        <v>52.587658418799997</v>
-      </c>
-      <c r="M15">
-        <v>53.378546213299998</v>
-      </c>
-      <c r="N15">
-        <v>6.3765980598800001</v>
-      </c>
-      <c r="O15">
-        <v>2.1035063367519999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3">
-        <v>41907</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16">
-        <v>1867.10609585</v>
-      </c>
-      <c r="E16">
-        <v>1908.02827045</v>
-      </c>
-      <c r="F16">
-        <v>701.82602003700003</v>
-      </c>
-      <c r="G16">
-        <v>74.684243834</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="3">
-        <v>41907</v>
-      </c>
-      <c r="K16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16">
-        <v>200.579547085</v>
-      </c>
-      <c r="M16">
-        <v>202.273167409</v>
-      </c>
-      <c r="N16">
-        <v>25.112692619499999</v>
-      </c>
-      <c r="O16">
-        <v>8.0231818833999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="3">
-        <v>42271</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>2042.6842729499999</v>
-      </c>
-      <c r="E17">
-        <v>2079.4803349899998</v>
-      </c>
-      <c r="F17">
-        <v>1152.6093629500001</v>
-      </c>
-      <c r="G17">
-        <v>81.707370917999995</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="3">
-        <v>42271</v>
-      </c>
-      <c r="K17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17">
-        <v>241.839996657</v>
-      </c>
-      <c r="M17">
-        <v>244.49781982900001</v>
-      </c>
-      <c r="N17">
-        <v>44.7952145653</v>
-      </c>
-      <c r="O17">
-        <v>9.67359986628</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3">
@@ -93509,6 +93870,50 @@
       </c>
       <c r="O12">
         <v>30.459949781159999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42644</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>2486.4087596899999</v>
+      </c>
+      <c r="E13">
+        <v>2534.8921355699999</v>
+      </c>
+      <c r="F13">
+        <v>1837.51875625</v>
+      </c>
+      <c r="G13">
+        <v>99.456350387599997</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="3">
+        <v>42644</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13">
+        <v>720.19219534399997</v>
+      </c>
+      <c r="M13">
+        <v>738.03759253199996</v>
+      </c>
+      <c r="N13">
+        <v>472.53742479099998</v>
+      </c>
+      <c r="O13">
+        <v>28.807687813759998</v>
       </c>
     </row>
   </sheetData>
